--- a/locators.xlsx
+++ b/locators.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29421"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3ECB858-F355-44BA-AA99-7DD8DB709CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC311F3B-63F5-42C6-B255-D1E9B21CD6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
     <sheet name="SportsPage" sheetId="3" r:id="rId2"/>
     <sheet name="BetGamesPage" sheetId="4" r:id="rId3"/>
     <sheet name="ContactUsPage" sheetId="5" r:id="rId4"/>
-    <sheet name="BetInfluencerModalPage" sheetId="2" r:id="rId5"/>
-    <sheet name="CasinoPage" sheetId="6" r:id="rId6"/>
-    <sheet name="VirtualPage" sheetId="7" r:id="rId7"/>
-    <sheet name="LoginPage" sheetId="8" r:id="rId8"/>
+    <sheet name="SampleDemoSheet" sheetId="9" r:id="rId5"/>
+    <sheet name="BetInfluencerModalPage" sheetId="2" r:id="rId6"/>
+    <sheet name="CasinoPage" sheetId="6" r:id="rId7"/>
+    <sheet name="VirtualPage" sheetId="7" r:id="rId8"/>
+    <sheet name="LoginPage" sheetId="8" r:id="rId9"/>
+    <sheet name="TransactionHistoryPagepage key " sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="261">
   <si>
     <t>page</t>
   </si>
@@ -220,204 +222,312 @@
     <t>betgames</t>
   </si>
   <si>
+    <t>{"name":"Betgames"}</t>
+  </si>
+  <si>
+    <t>LuckyNumbers</t>
+  </si>
+  <si>
+    <t>{"namet":"Lucky Numbers"}</t>
+  </si>
+  <si>
+    <t>HorseRacing</t>
+  </si>
+  <si>
+    <t>{"name":"Horse Racing"}</t>
+  </si>
+  <si>
+    <t>Jetx</t>
+  </si>
+  <si>
+    <t>{"name":"JetX"}</t>
+  </si>
+  <si>
+    <t>ChickenGame</t>
+  </si>
+  <si>
+    <t>{"name":"Chicken Game"}</t>
+  </si>
+  <si>
+    <t>OldSite</t>
+  </si>
+  <si>
+    <t>{"name":"Old Site"}</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>{"name":"Home"}</t>
+  </si>
+  <si>
+    <t>CasinoGames</t>
+  </si>
+  <si>
+    <t>{"name":"Casino Games"}</t>
+  </si>
+  <si>
+    <t>Virtuals</t>
+  </si>
+  <si>
+    <t>{"name":"Virtuals"}</t>
+  </si>
+  <si>
+    <t>promotionPage</t>
+  </si>
+  <si>
+    <t>{"name":"Promotions"}</t>
+  </si>
+  <si>
+    <t>betslip</t>
+  </si>
+  <si>
+    <t>#betslip-container</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>betslipButton</t>
+  </si>
+  <si>
+    <t>Betslip 0</t>
+  </si>
+  <si>
+    <t>loginButtonFromBetslip</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>{"name":"Login"}</t>
+  </si>
+  <si>
+    <t>betNow</t>
+  </si>
+  <si>
+    <t>#betslip-strike-btn</t>
+  </si>
+  <si>
+    <t>shareButton</t>
+  </si>
+  <si>
+    <t>#betslip-share-btn</t>
+  </si>
+  <si>
+    <t>betConfirmation</t>
+  </si>
+  <si>
+    <t>Bet Confirmation</t>
+  </si>
+  <si>
+    <t>bookingCodeMessage</t>
+  </si>
+  <si>
+    <t>Booking Code:</t>
+  </si>
+  <si>
+    <t>enterBookingCode</t>
+  </si>
+  <si>
+    <t>#booking-code</t>
+  </si>
+  <si>
+    <t>modalCloseButton</t>
+  </si>
+  <si>
+    <t>#modal-close-btn</t>
+  </si>
+  <si>
+    <t>searchBox</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>{"name":"Search"}</t>
+  </si>
+  <si>
+    <t>playButton</t>
+  </si>
+  <si>
+    <t>{"name":"Play"}</t>
+  </si>
+  <si>
+    <t>favouriteGames</t>
+  </si>
+  <si>
+    <t>a[aria-label="Favourite Game"]</t>
+  </si>
+  <si>
+    <t>chatToLiveSupport</t>
+  </si>
+  <si>
+    <t>To live support</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>@Betway_za</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>Standard Rate Call</t>
+  </si>
+  <si>
+    <t>formMobileInput</t>
+  </si>
+  <si>
+    <t>#mobile-number</t>
+  </si>
+  <si>
+    <t>formEmailInput</t>
+  </si>
+  <si>
+    <t>#email-address</t>
+  </si>
+  <si>
+    <t>formQueryInput</t>
+  </si>
+  <si>
+    <t>#your-comment-or-query</t>
+  </si>
+  <si>
+    <t>formQueryType</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>formSubmitButton</t>
+  </si>
+  <si>
+    <t>{"name":"Submit"}</t>
+  </si>
+  <si>
+    <t>mobileInput</t>
+  </si>
+  <si>
+    <t>textbox</t>
+  </si>
+  <si>
+    <t>{"name":"Mobile Number"}</t>
+  </si>
+  <si>
+    <t>passwordInput</t>
+  </si>
+  <si>
+    <t>{"name":"WrongPasswordField"}</t>
+  </si>
+  <si>
+    <t>formPasswordInput</t>
+  </si>
+  <si>
+    <t>{"name":"Password"}</t>
+  </si>
+  <si>
+    <t>loginButton</t>
+  </si>
+  <si>
+    <t>#login-btn</t>
+  </si>
+  <si>
+    <t>loginButtonFromPopup</t>
+  </si>
+  <si>
+    <t>loginButtonfromHeader</t>
+  </si>
+  <si>
+    <t>signUpButton</t>
+  </si>
+  <si>
+    <t>#sign-up-btn</t>
+  </si>
+  <si>
+    <t>signUpButtonfromHamburger</t>
+  </si>
+  <si>
+    <t>{"name":"Sign Up"}</t>
+  </si>
+  <si>
+    <t>hamburgerMenu</t>
+  </si>
+  <si>
+    <t>#header-hamburger-btn</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>CasinoButton</t>
+  </si>
+  <si>
+    <t>Casino</t>
+  </si>
+  <si>
+    <t>welcomeUser</t>
+  </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>(dynamic: userData.user1.username)</t>
+  </si>
+  <si>
+    <t>betInfluencer</t>
+  </si>
+  <si>
+    <t>Bet Influencer</t>
+  </si>
+  <si>
     <t>{"hasText":"Betgames"}</t>
   </si>
   <si>
-    <t>LuckyNumbers</t>
-  </si>
-  <si>
     <t>{"hasText":"Lucky Numbers"}</t>
   </si>
   <si>
-    <t>HorseRacing</t>
-  </si>
-  <si>
     <t>{"hasText":"Horse Racing"}</t>
   </si>
   <si>
-    <t>Jetx</t>
-  </si>
-  <si>
     <t>{"hasText":"JetX"}</t>
   </si>
   <si>
-    <t>ChickenGame</t>
-  </si>
-  <si>
     <t>{"hasText":"Chicken Game"}</t>
   </si>
   <si>
-    <t>OldSite</t>
-  </si>
-  <si>
     <t>{"hasText":"Old Site"}</t>
   </si>
   <si>
-    <t>Home</t>
-  </si>
-  <si>
     <t>{"hasText":"Home"}</t>
   </si>
   <si>
-    <t>CasinoGames</t>
-  </si>
-  <si>
     <t>{"hasText":"Casino Games"}</t>
   </si>
   <si>
-    <t>Virtuals</t>
-  </si>
-  <si>
     <t>{"hasText":"Virtuals"}</t>
   </si>
   <si>
-    <t>promotionPage</t>
-  </si>
-  <si>
     <t>{"hasText":"Promotions"}</t>
   </si>
   <si>
-    <t>betslip</t>
-  </si>
-  <si>
-    <t>#betslip-container</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>betslipButton</t>
-  </si>
-  <si>
-    <t>Betslip 0</t>
-  </si>
-  <si>
-    <t>loginButtonFromBetslip</t>
-  </si>
-  <si>
-    <t>button</t>
-  </si>
-  <si>
-    <t>{"name":"Login"}</t>
-  </si>
-  <si>
-    <t>betNow</t>
-  </si>
-  <si>
-    <t>#betslip-strike-btn</t>
-  </si>
-  <si>
-    <t>shareButton</t>
-  </si>
-  <si>
-    <t>#betslip-share-btn</t>
-  </si>
-  <si>
-    <t>betConfirmation</t>
-  </si>
-  <si>
-    <t>Bet Confirmation</t>
-  </si>
-  <si>
-    <t>bookingCodeMessage</t>
-  </si>
-  <si>
-    <t>Booking Code:</t>
-  </si>
-  <si>
-    <t>enterBookingCode</t>
-  </si>
-  <si>
-    <t>#booking-code</t>
-  </si>
-  <si>
-    <t>modalCloseButton</t>
-  </si>
-  <si>
-    <t>#modal-close-btn</t>
-  </si>
-  <si>
-    <t>searchBox</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>{"name":"Search"}</t>
-  </si>
-  <si>
-    <t>playButton</t>
-  </si>
-  <si>
-    <t>{"name":"Play"}</t>
-  </si>
-  <si>
-    <t>favouriteGames</t>
-  </si>
-  <si>
-    <t>a[aria-label="Favourite Game"]</t>
-  </si>
-  <si>
-    <t>chatToLiveSupport</t>
-  </si>
-  <si>
-    <t>To live support</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>@Betway_za</t>
-  </si>
-  <si>
-    <t>facebook</t>
-  </si>
-  <si>
-    <t>Facebook</t>
-  </si>
-  <si>
-    <t>call</t>
-  </si>
-  <si>
-    <t>Standard Rate Call</t>
-  </si>
-  <si>
-    <t>formMobileInput</t>
-  </si>
-  <si>
-    <t>#mobile-number</t>
-  </si>
-  <si>
-    <t>formEmailInput</t>
-  </si>
-  <si>
-    <t>#email-address</t>
-  </si>
-  <si>
-    <t>formQueryInput</t>
-  </si>
-  <si>
-    <t>#your-comment-or-query</t>
-  </si>
-  <si>
-    <t>formQueryType</t>
-  </si>
-  <si>
-    <t>Query</t>
-  </si>
-  <si>
-    <t>formSubmitButton</t>
-  </si>
-  <si>
-    <t>{"name":"Submit"}</t>
-  </si>
-  <si>
     <t>summaryButton</t>
   </si>
   <si>
@@ -511,89 +621,215 @@
     <t>homePage</t>
   </si>
   <si>
-    <t>{"name":"Home"}</t>
-  </si>
-  <si>
-    <t>mobileInput</t>
-  </si>
-  <si>
-    <t>textbox</t>
-  </si>
-  <si>
-    <t>{"name":"Mobile Number"}</t>
-  </si>
-  <si>
-    <t>passwordInput</t>
-  </si>
-  <si>
-    <t>{"name":"Password"}</t>
-  </si>
-  <si>
-    <t>formPasswordInput</t>
-  </si>
-  <si>
-    <t>loginButton</t>
-  </si>
-  <si>
-    <t>#login-btn</t>
-  </si>
-  <si>
-    <t>loginButtonFromPopup</t>
-  </si>
-  <si>
-    <t>loginButtonfromHeader</t>
-  </si>
-  <si>
-    <t>signUpButton</t>
-  </si>
-  <si>
-    <t>#sign-up-btn</t>
-  </si>
-  <si>
-    <t>signUpButtonfromHamburger</t>
-  </si>
-  <si>
-    <t>{"name":"Sign Up"}</t>
-  </si>
-  <si>
-    <t>hamburgerMenu</t>
-  </si>
-  <si>
-    <t>#header-hamburger-btn</t>
-  </si>
-  <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>CasinoButton</t>
-  </si>
-  <si>
-    <t>Casino</t>
-  </si>
-  <si>
-    <t>welcomeUser</t>
-  </si>
-  <si>
-    <t>Welcome</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>(dynamic: userData.user1.username)</t>
-  </si>
-  <si>
-    <t>betInfluencer</t>
-  </si>
-  <si>
-    <t>Bet Influencer</t>
+    <t>TransactionHistoryPage</t>
+  </si>
+  <si>
+    <t>mobileNumber</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>{"name":"Enter Password"}</t>
+  </si>
+  <si>
+    <t>hamburgerBtn</t>
+  </si>
+  <si>
+    <t>#header-hamburger-btn path</t>
+  </si>
+  <si>
+    <t>transactionHistoryButton</t>
+  </si>
+  <si>
+    <t>{"name":"Transaction History"}</t>
+  </si>
+  <si>
+    <t>accountNav</t>
+  </si>
+  <si>
+    <t>#transaction-history-account-nav</t>
+  </si>
+  <si>
+    <t>sportsBtn</t>
+  </si>
+  <si>
+    <t>#transaction-history-sports-btn</t>
+  </si>
+  <si>
+    <t>depositBtn</t>
+  </si>
+  <si>
+    <t>#transaction-history-deposit-btn</t>
+  </si>
+  <si>
+    <t>withdrawalBtn</t>
+  </si>
+  <si>
+    <t>#transaction-history-withdrawal-btn</t>
+  </si>
+  <si>
+    <t>allBtn</t>
+  </si>
+  <si>
+    <t>#transaction-history-All-btn</t>
+  </si>
+  <si>
+    <t>casinoBtn</t>
+  </si>
+  <si>
+    <t>#transaction-history-casino-btn</t>
+  </si>
+  <si>
+    <t>betgamesBtn</t>
+  </si>
+  <si>
+    <t>#transaction-history-betgames-btn</t>
+  </si>
+  <si>
+    <t>virtualsBtn</t>
+  </si>
+  <si>
+    <t>#transaction-history-virtual-btn</t>
+  </si>
+  <si>
+    <t>luckyNumbersBtn</t>
+  </si>
+  <si>
+    <t>#transaction-history-lucky-numbers-btn</t>
+  </si>
+  <si>
+    <t>jackpotsBtn</t>
+  </si>
+  <si>
+    <t>#transaction-history-jackpot-btn</t>
+  </si>
+  <si>
+    <t>accountMain</t>
+  </si>
+  <si>
+    <t>div#my-account-main</t>
+  </si>
+  <si>
+    <t>transactionIdInput</t>
+  </si>
+  <si>
+    <t>placeholder</t>
+  </si>
+  <si>
+    <t>Transaction ID</t>
+  </si>
+  <si>
+    <t>datePicker</t>
+  </si>
+  <si>
+    <t>combobox</t>
+  </si>
+  <si>
+    <t>{"name":"Date"}</t>
+  </si>
+  <si>
+    <t>previousMonthBtn</t>
+  </si>
+  <si>
+    <t>{"name":"Previous Month"}</t>
+  </si>
+  <si>
+    <t>dateOkBtn</t>
+  </si>
+  <si>
+    <t>{"name":"Ok","exact":true}</t>
+  </si>
+  <si>
+    <t>dateClearBtn</t>
+  </si>
+  <si>
+    <t>{"name":"Clear"}</t>
+  </si>
+  <si>
+    <t>dateDialog</t>
+  </si>
+  <si>
+    <t>dialog</t>
+  </si>
+  <si>
+    <t>{"name":"Choose Date"}</t>
+  </si>
+  <si>
+    <t>exportBtn</t>
+  </si>
+  <si>
+    <t>#transaction-history-export-btn img</t>
+  </si>
+  <si>
+    <t>transactionIDButton</t>
+  </si>
+  <si>
+    <t>span.underline.cursor-pointer</t>
+  </si>
+  <si>
+    <t>transactionDetailView</t>
+  </si>
+  <si>
+    <t>svg.w-6.h-6.cursor-pointer.fill-dark-600</t>
+  </si>
+  <si>
+    <t>detailViewBackButton</t>
+  </si>
+  <si>
+    <t>{"name":"Back"}</t>
+  </si>
+  <si>
+    <t>betslipBackButton</t>
+  </si>
+  <si>
+    <t>#detail-view-back-btn</t>
+  </si>
+  <si>
+    <t>closePopup</t>
+  </si>
+  <si>
+    <t>prevPageButton</t>
+  </si>
+  <si>
+    <t>#transaction-history-prev</t>
+  </si>
+  <si>
+    <t>nextPageButton</t>
+  </si>
+  <si>
+    <t>#transaction-history-next</t>
+  </si>
+  <si>
+    <t>smartPicksButton</t>
+  </si>
+  <si>
+    <t>.flex &gt; .col-span-6 &gt; div:nth-child(4)</t>
+  </si>
+  <si>
+    <t>smartPicks5</t>
+  </si>
+  <si>
+    <t>Smart Picks 5</t>
+  </si>
+  <si>
+    <t>betNowButton</t>
+  </si>
+  <si>
+    <t>{"name":"Bet Now"}</t>
+  </si>
+  <si>
+    <t>multipleBetsButton</t>
+  </si>
+  <si>
+    <t>#betslip-multi-tab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -643,6 +879,12 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -665,7 +907,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -679,6 +921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1017,7 +1260,7 @@
   <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1870,12 +2113,735 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D97575E-794D-4932-84E0-47EED65F40E9}">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04375B0-061C-468F-B4E7-4D7CD5744437}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2418,7 +3384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEF7FE8-9A84-48CC-A6D1-451684C087BF}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -2601,6 +3567,701 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9D25CF-8BCD-43DF-96C6-0CEC7A5A248C}">
+  <dimension ref="A1:E40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262B1911-0B8D-4876-BA6B-FF0F7811E95A}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -2632,7 +4293,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
@@ -2641,7 +4302,7 @@
         <v>85</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -2649,7 +4310,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -2658,7 +4319,7 @@
         <v>85</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -2666,13 +4327,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>16</v>
@@ -2681,13 +4342,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
@@ -2698,13 +4359,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>16</v>
@@ -2715,13 +4376,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>16</v>
@@ -2730,13 +4391,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>16</v>
@@ -2745,13 +4406,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>16</v>
@@ -2762,13 +4423,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>16</v>
@@ -2779,16 +4440,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -2796,16 +4457,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -2813,13 +4474,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>16</v>
@@ -2828,13 +4489,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -2848,7 +4509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C68A382-283A-4580-9918-E79EE976A4D9}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -2911,7 +4572,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
@@ -2920,7 +4581,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -2937,7 +4598,7 @@
         <v>85</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -2948,7 +4609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3711403-A9F9-4506-9E1F-34A982D4A21C}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -3023,7 +4684,7 @@
         <v>85</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -3031,7 +4692,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -3040,7 +4701,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>157</v>
+        <v>72</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3051,7 +4712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887A482B-52CE-4D79-A0AB-BC2FF1F35C7B}">
   <dimension ref="A1:E40"/>
   <sheetViews>
@@ -3084,16 +4745,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -3101,16 +4762,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -3124,10 +4785,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -3135,16 +4796,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -3152,13 +4813,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>16</v>
@@ -3167,7 +4828,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
@@ -3184,7 +4845,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
@@ -3201,13 +4862,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>16</v>
@@ -3216,7 +4877,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>8</v>
@@ -3225,7 +4886,7 @@
         <v>85</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -3233,13 +4894,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>16</v>
@@ -3254,7 +4915,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>16</v>
@@ -3265,13 +4926,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>16</v>
@@ -3282,13 +4943,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>16</v>
@@ -3299,13 +4960,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>16</v>
@@ -3316,13 +4977,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>16</v>
@@ -3444,7 +5105,7 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3461,7 +5122,7 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3478,7 +5139,7 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3495,7 +5156,7 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3512,7 +5173,7 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3529,7 +5190,7 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -3546,7 +5207,7 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3563,7 +5224,7 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -3580,7 +5241,7 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3597,7 +5258,7 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="E32">
         <v>0</v>

--- a/locators.xlsx
+++ b/locators.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29421"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC311F3B-63F5-42C6-B255-D1E9B21CD6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20332123-CE59-47EB-A7AA-98609A4181EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="262">
   <si>
     <t>page</t>
   </si>
@@ -192,310 +192,313 @@
     <t>aviator</t>
   </si>
   <si>
+    <t>{"name":"Aviator"}</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>{"hasText":"Live"}</t>
+  </si>
+  <si>
+    <t>esports</t>
+  </si>
+  <si>
+    <t>{"hasText":"Esports"}</t>
+  </si>
+  <si>
+    <t>soccerTote</t>
+  </si>
+  <si>
+    <t>{"hasText":"Soccer Tote"}</t>
+  </si>
+  <si>
+    <t>betwayJackpots</t>
+  </si>
+  <si>
+    <t>{"hasText":"Betway Jackpots"}</t>
+  </si>
+  <si>
+    <t>betgames</t>
+  </si>
+  <si>
+    <t>{"name":"Betgames"}</t>
+  </si>
+  <si>
+    <t>LuckyNumbers</t>
+  </si>
+  <si>
+    <t>{"namet":"Lucky Numbers"}</t>
+  </si>
+  <si>
+    <t>HorseRacing</t>
+  </si>
+  <si>
+    <t>{"name":"Horse Racing"}</t>
+  </si>
+  <si>
+    <t>Jetx</t>
+  </si>
+  <si>
+    <t>{"name":"JetX"}</t>
+  </si>
+  <si>
+    <t>ChickenGame</t>
+  </si>
+  <si>
+    <t>{"name":"Chicken Game"}</t>
+  </si>
+  <si>
+    <t>OldSite</t>
+  </si>
+  <si>
+    <t>{"name":"Old Site"}</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>{"name":"Home"}</t>
+  </si>
+  <si>
+    <t>CasinoGames</t>
+  </si>
+  <si>
+    <t>{"name":"Casino Games"}</t>
+  </si>
+  <si>
+    <t>Virtuals</t>
+  </si>
+  <si>
+    <t>{"name":"Virtuals"}</t>
+  </si>
+  <si>
+    <t>promotionPage</t>
+  </si>
+  <si>
+    <t>{"name":"Promotions"}</t>
+  </si>
+  <si>
+    <t>betslip</t>
+  </si>
+  <si>
+    <t>#betslip-container</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>betslipButton</t>
+  </si>
+  <si>
+    <t>Betslip 0</t>
+  </si>
+  <si>
+    <t>loginButtonFromBetslip</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>{"name":"Login"}</t>
+  </si>
+  <si>
+    <t>betNow</t>
+  </si>
+  <si>
+    <t>#betslip-strike-btn</t>
+  </si>
+  <si>
+    <t>shareButton</t>
+  </si>
+  <si>
+    <t>#betslip-share-btn</t>
+  </si>
+  <si>
+    <t>betConfirmation</t>
+  </si>
+  <si>
+    <t>Bet Confirmation</t>
+  </si>
+  <si>
+    <t>bookingCodeMessage</t>
+  </si>
+  <si>
+    <t>Booking Code:</t>
+  </si>
+  <si>
+    <t>enterBookingCode</t>
+  </si>
+  <si>
+    <t>#booking-code</t>
+  </si>
+  <si>
+    <t>modalCloseButton</t>
+  </si>
+  <si>
+    <t>#modal-close-btn</t>
+  </si>
+  <si>
+    <t>searchBox</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>{"name":"Search"}</t>
+  </si>
+  <si>
+    <t>playButton</t>
+  </si>
+  <si>
+    <t>{"name":"Play"}</t>
+  </si>
+  <si>
+    <t>favouriteGames</t>
+  </si>
+  <si>
+    <t>a[aria-label="Favourite Game"]</t>
+  </si>
+  <si>
+    <t>chatToLiveSupport</t>
+  </si>
+  <si>
+    <t>To live support</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>@Betway_za</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>Standard Rate Call</t>
+  </si>
+  <si>
+    <t>formMobileInput</t>
+  </si>
+  <si>
+    <t>#mobile-number</t>
+  </si>
+  <si>
+    <t>formEmailInput</t>
+  </si>
+  <si>
+    <t>#email-address</t>
+  </si>
+  <si>
+    <t>formQueryInput</t>
+  </si>
+  <si>
+    <t>#your-comment-or-query</t>
+  </si>
+  <si>
+    <t>formQueryType</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>formSubmitButton</t>
+  </si>
+  <si>
+    <t>{"name":"Submit"}</t>
+  </si>
+  <si>
+    <t>mobileInput</t>
+  </si>
+  <si>
+    <t>textbox</t>
+  </si>
+  <si>
+    <t>{"name":"Mobile Number"}</t>
+  </si>
+  <si>
+    <t>passwordInput</t>
+  </si>
+  <si>
+    <t>{"name":"WrongPasswordField"}</t>
+  </si>
+  <si>
+    <t>formPasswordInput</t>
+  </si>
+  <si>
+    <t>{"name":"Password"}</t>
+  </si>
+  <si>
+    <t>loginButton</t>
+  </si>
+  <si>
+    <t>#login-btn</t>
+  </si>
+  <si>
+    <t>loginButtonFromPopup</t>
+  </si>
+  <si>
+    <t>loginButtonfromHeader</t>
+  </si>
+  <si>
+    <t>signUpButton</t>
+  </si>
+  <si>
+    <t>#sign-up-btn</t>
+  </si>
+  <si>
+    <t>signUpButtonfromHamburger</t>
+  </si>
+  <si>
+    <t>{"name":"Sign Up"}</t>
+  </si>
+  <si>
+    <t>hamburgerMenu</t>
+  </si>
+  <si>
+    <t>#header-hamburger-btn</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>CasinoButton</t>
+  </si>
+  <si>
+    <t>Casino</t>
+  </si>
+  <si>
+    <t>welcomeUser</t>
+  </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>(dynamic: userData.user1.username)</t>
+  </si>
+  <si>
+    <t>betInfluencer</t>
+  </si>
+  <si>
+    <t>Bet Influencer</t>
+  </si>
+  <si>
     <t>{"hasText":"Aviator"}</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>{"hasText":"Live"}</t>
-  </si>
-  <si>
-    <t>esports</t>
-  </si>
-  <si>
-    <t>{"hasText":"Esports"}</t>
-  </si>
-  <si>
-    <t>soccerTote</t>
-  </si>
-  <si>
-    <t>{"hasText":"Soccer Tote"}</t>
-  </si>
-  <si>
-    <t>betwayJackpots</t>
-  </si>
-  <si>
-    <t>{"hasText":"Betway Jackpots"}</t>
-  </si>
-  <si>
-    <t>betgames</t>
-  </si>
-  <si>
-    <t>{"name":"Betgames"}</t>
-  </si>
-  <si>
-    <t>LuckyNumbers</t>
-  </si>
-  <si>
-    <t>{"namet":"Lucky Numbers"}</t>
-  </si>
-  <si>
-    <t>HorseRacing</t>
-  </si>
-  <si>
-    <t>{"name":"Horse Racing"}</t>
-  </si>
-  <si>
-    <t>Jetx</t>
-  </si>
-  <si>
-    <t>{"name":"JetX"}</t>
-  </si>
-  <si>
-    <t>ChickenGame</t>
-  </si>
-  <si>
-    <t>{"name":"Chicken Game"}</t>
-  </si>
-  <si>
-    <t>OldSite</t>
-  </si>
-  <si>
-    <t>{"name":"Old Site"}</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>{"name":"Home"}</t>
-  </si>
-  <si>
-    <t>CasinoGames</t>
-  </si>
-  <si>
-    <t>{"name":"Casino Games"}</t>
-  </si>
-  <si>
-    <t>Virtuals</t>
-  </si>
-  <si>
-    <t>{"name":"Virtuals"}</t>
-  </si>
-  <si>
-    <t>promotionPage</t>
-  </si>
-  <si>
-    <t>{"name":"Promotions"}</t>
-  </si>
-  <si>
-    <t>betslip</t>
-  </si>
-  <si>
-    <t>#betslip-container</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>betslipButton</t>
-  </si>
-  <si>
-    <t>Betslip 0</t>
-  </si>
-  <si>
-    <t>loginButtonFromBetslip</t>
-  </si>
-  <si>
-    <t>button</t>
-  </si>
-  <si>
-    <t>{"name":"Login"}</t>
-  </si>
-  <si>
-    <t>betNow</t>
-  </si>
-  <si>
-    <t>#betslip-strike-btn</t>
-  </si>
-  <si>
-    <t>shareButton</t>
-  </si>
-  <si>
-    <t>#betslip-share-btn</t>
-  </si>
-  <si>
-    <t>betConfirmation</t>
-  </si>
-  <si>
-    <t>Bet Confirmation</t>
-  </si>
-  <si>
-    <t>bookingCodeMessage</t>
-  </si>
-  <si>
-    <t>Booking Code:</t>
-  </si>
-  <si>
-    <t>enterBookingCode</t>
-  </si>
-  <si>
-    <t>#booking-code</t>
-  </si>
-  <si>
-    <t>modalCloseButton</t>
-  </si>
-  <si>
-    <t>#modal-close-btn</t>
-  </si>
-  <si>
-    <t>searchBox</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>{"name":"Search"}</t>
-  </si>
-  <si>
-    <t>playButton</t>
-  </si>
-  <si>
-    <t>{"name":"Play"}</t>
-  </si>
-  <si>
-    <t>favouriteGames</t>
-  </si>
-  <si>
-    <t>a[aria-label="Favourite Game"]</t>
-  </si>
-  <si>
-    <t>chatToLiveSupport</t>
-  </si>
-  <si>
-    <t>To live support</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>@Betway_za</t>
-  </si>
-  <si>
-    <t>facebook</t>
-  </si>
-  <si>
-    <t>Facebook</t>
-  </si>
-  <si>
-    <t>call</t>
-  </si>
-  <si>
-    <t>Standard Rate Call</t>
-  </si>
-  <si>
-    <t>formMobileInput</t>
-  </si>
-  <si>
-    <t>#mobile-number</t>
-  </si>
-  <si>
-    <t>formEmailInput</t>
-  </si>
-  <si>
-    <t>#email-address</t>
-  </si>
-  <si>
-    <t>formQueryInput</t>
-  </si>
-  <si>
-    <t>#your-comment-or-query</t>
-  </si>
-  <si>
-    <t>formQueryType</t>
-  </si>
-  <si>
-    <t>Query</t>
-  </si>
-  <si>
-    <t>formSubmitButton</t>
-  </si>
-  <si>
-    <t>{"name":"Submit"}</t>
-  </si>
-  <si>
-    <t>mobileInput</t>
-  </si>
-  <si>
-    <t>textbox</t>
-  </si>
-  <si>
-    <t>{"name":"Mobile Number"}</t>
-  </si>
-  <si>
-    <t>passwordInput</t>
-  </si>
-  <si>
-    <t>{"name":"WrongPasswordField"}</t>
-  </si>
-  <si>
-    <t>formPasswordInput</t>
-  </si>
-  <si>
-    <t>{"name":"Password"}</t>
-  </si>
-  <si>
-    <t>loginButton</t>
-  </si>
-  <si>
-    <t>#login-btn</t>
-  </si>
-  <si>
-    <t>loginButtonFromPopup</t>
-  </si>
-  <si>
-    <t>loginButtonfromHeader</t>
-  </si>
-  <si>
-    <t>signUpButton</t>
-  </si>
-  <si>
-    <t>#sign-up-btn</t>
-  </si>
-  <si>
-    <t>signUpButtonfromHamburger</t>
-  </si>
-  <si>
-    <t>{"name":"Sign Up"}</t>
-  </si>
-  <si>
-    <t>hamburgerMenu</t>
-  </si>
-  <si>
-    <t>#header-hamburger-btn</t>
-  </si>
-  <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>CasinoButton</t>
-  </si>
-  <si>
-    <t>Casino</t>
-  </si>
-  <si>
-    <t>welcomeUser</t>
-  </si>
-  <si>
-    <t>Welcome</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>(dynamic: userData.user1.username)</t>
-  </si>
-  <si>
-    <t>betInfluencer</t>
-  </si>
-  <si>
-    <t>Bet Influencer</t>
   </si>
   <si>
     <t>{"hasText":"Betgames"}</t>
@@ -1260,7 +1263,7 @@
   <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2153,10 +2156,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
@@ -2173,10 +2176,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
@@ -2185,7 +2188,7 @@
         <v>127</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>133</v>
@@ -2213,16 +2216,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>16</v>
@@ -2233,10 +2236,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
@@ -2245,7 +2248,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -2253,16 +2256,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>16</v>
@@ -2273,16 +2276,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>16</v>
@@ -2293,16 +2296,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>16</v>
@@ -2313,16 +2316,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>16</v>
@@ -2333,16 +2336,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>16</v>
@@ -2353,16 +2356,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>16</v>
@@ -2373,16 +2376,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>16</v>
@@ -2393,16 +2396,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>16</v>
@@ -2413,16 +2416,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>16</v>
@@ -2433,16 +2436,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>16</v>
@@ -2453,16 +2456,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>16</v>
@@ -2473,16 +2476,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>16</v>
@@ -2493,19 +2496,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -2513,10 +2516,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>8</v>
@@ -2525,7 +2528,7 @@
         <v>85</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -2533,10 +2536,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>8</v>
@@ -2545,7 +2548,7 @@
         <v>9</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
@@ -2553,10 +2556,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>8</v>
@@ -2565,7 +2568,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
@@ -2573,19 +2576,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -2593,16 +2596,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>16</v>
@@ -2613,16 +2616,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>16</v>
@@ -2633,16 +2636,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>16</v>
@@ -2653,10 +2656,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>8</v>
@@ -2665,7 +2668,7 @@
         <v>85</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
@@ -2673,16 +2676,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>16</v>
@@ -2693,10 +2696,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>32</v>
@@ -2713,16 +2716,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>16</v>
@@ -2733,16 +2736,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>16</v>
@@ -2753,16 +2756,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>16</v>
@@ -2773,16 +2776,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>16</v>
@@ -2793,10 +2796,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>8</v>
@@ -2805,7 +2808,7 @@
         <v>85</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>
@@ -2813,16 +2816,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>16</v>
@@ -2840,8 +2843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04375B0-061C-468F-B4E7-4D7CD5744437}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3571,7 +3574,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3876,7 +3879,7 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3961,7 +3964,7 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3978,7 +3981,7 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3995,7 +3998,7 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4012,7 +4015,7 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -4029,7 +4032,7 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4046,7 +4049,7 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4063,7 +4066,7 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4080,7 +4083,7 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4097,7 +4100,7 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4114,7 +4117,7 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -4266,7 +4269,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4293,7 +4296,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
@@ -4302,7 +4305,7 @@
         <v>85</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -4310,7 +4313,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -4319,7 +4322,7 @@
         <v>85</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -4327,13 +4330,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>16</v>
@@ -4342,13 +4345,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
@@ -4359,13 +4362,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>16</v>
@@ -4376,13 +4379,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>16</v>
@@ -4391,13 +4394,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>16</v>
@@ -4406,13 +4409,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>16</v>
@@ -4423,13 +4426,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>16</v>
@@ -4440,16 +4443,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -4457,16 +4460,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -4474,13 +4477,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>16</v>
@@ -4489,13 +4492,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -4572,7 +4575,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
@@ -4581,7 +4584,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -4598,7 +4601,7 @@
         <v>85</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -4684,7 +4687,7 @@
         <v>85</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -4692,7 +4695,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -5020,7 +5023,7 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -5105,7 +5108,7 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -5122,7 +5125,7 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -5139,7 +5142,7 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5156,7 +5159,7 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5173,7 +5176,7 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5190,7 +5193,7 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5207,7 +5210,7 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -5224,7 +5227,7 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -5241,7 +5244,7 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -5258,7 +5261,7 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E32">
         <v>0</v>

--- a/locators.xlsx
+++ b/locators.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29421"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20332123-CE59-47EB-A7AA-98609A4181EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EB2B0CF-ABE3-4274-96D5-28E2DD6166F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="263">
   <si>
     <t>page</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>a[href="https://x.com/betway"]</t>
+  </si>
+  <si>
+    <t>SportsPage</t>
   </si>
   <si>
     <t>SportButton</t>
@@ -1263,7 +1266,7 @@
   <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A19"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2156,19 +2159,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
@@ -2176,19 +2179,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -2196,19 +2199,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -2216,30 +2219,30 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
@@ -2248,7 +2251,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -2256,259 +2259,259 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -2516,19 +2519,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -2536,10 +2539,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>8</v>
@@ -2548,7 +2551,7 @@
         <v>9</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
@@ -2556,10 +2559,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>8</v>
@@ -2568,7 +2571,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
@@ -2576,19 +2579,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -2596,36 +2599,36 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>16</v>
@@ -2636,16 +2639,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>16</v>
@@ -2656,19 +2659,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
@@ -2676,16 +2679,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>16</v>
@@ -2696,96 +2699,96 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>16</v>
@@ -2796,19 +2799,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>
@@ -2816,22 +2819,22 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2841,458 +2844,537 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04375B0-061C-468F-B4E7-4D7CD5744437}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>89</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s">
         <v>14</v>
       </c>
-      <c r="C23" t="s">
-        <v>92</v>
-      </c>
       <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>93</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
         <v>14</v>
       </c>
-      <c r="C24" t="s">
-        <v>94</v>
-      </c>
       <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>95</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>97</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>81</v>
+        <v>99</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3329,16 +3411,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -3346,16 +3428,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -3363,13 +3445,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>16</v>
@@ -3419,13 +3501,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
@@ -3436,13 +3518,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>16</v>
@@ -3451,13 +3533,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>16</v>
@@ -3466,13 +3548,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
@@ -3481,13 +3563,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>16</v>
@@ -3496,13 +3578,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>16</v>
@@ -3510,13 +3592,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>16</v>
@@ -3524,13 +3606,13 @@
     </row>
     <row r="9" spans="1:5" ht="29.25">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>16</v>
@@ -3538,13 +3620,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>16</v>
@@ -3552,16 +3634,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3604,16 +3686,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -3621,16 +3703,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -3638,16 +3720,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -3655,16 +3737,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -3672,13 +3754,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>16</v>
@@ -3687,16 +3769,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -3704,16 +3786,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -3721,13 +3803,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>16</v>
@@ -3736,16 +3818,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -3753,13 +3835,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>16</v>
@@ -3768,13 +3850,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>16</v>
@@ -3785,13 +3867,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>16</v>
@@ -3802,13 +3884,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>16</v>
@@ -3819,13 +3901,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>16</v>
@@ -3836,13 +3918,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>16</v>
@@ -3853,7 +3935,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -3862,7 +3944,7 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3870,7 +3952,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -3879,7 +3961,7 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3887,7 +3969,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -3896,7 +3978,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3904,7 +3986,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -3913,7 +3995,7 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3921,7 +4003,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -3930,7 +4012,7 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3938,7 +4020,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -3947,7 +4029,7 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -3955,7 +4037,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -3964,7 +4046,7 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3972,7 +4054,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -3981,7 +4063,7 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3989,7 +4071,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -3998,7 +4080,7 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4006,7 +4088,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -4015,7 +4097,7 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -4023,7 +4105,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -4032,7 +4114,7 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4040,7 +4122,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -4049,7 +4131,7 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4057,7 +4139,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -4066,7 +4148,7 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4074,7 +4156,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -4083,7 +4165,7 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4091,7 +4173,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -4100,7 +4182,7 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4108,7 +4190,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -4117,7 +4199,7 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -4125,81 +4207,81 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s">
         <v>16</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D37" t="s">
         <v>16</v>
@@ -4210,13 +4292,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
@@ -4227,36 +4309,36 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D39" t="s">
         <v>16</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B40" t="s">
         <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D40" t="s">
         <v>16</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -4296,16 +4378,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -4313,16 +4395,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -4330,13 +4412,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>16</v>
@@ -4345,13 +4427,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
@@ -4362,13 +4444,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>16</v>
@@ -4379,13 +4461,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>16</v>
@@ -4394,13 +4476,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>16</v>
@@ -4409,13 +4491,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>16</v>
@@ -4426,13 +4508,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>16</v>
@@ -4443,16 +4525,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -4460,16 +4542,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -4477,13 +4559,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>16</v>
@@ -4492,13 +4574,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -4541,16 +4623,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -4558,16 +4640,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -4575,7 +4657,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
@@ -4584,7 +4666,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -4592,16 +4674,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -4644,16 +4726,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -4661,16 +4743,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -4678,16 +4760,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -4695,7 +4777,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -4704,7 +4786,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4748,16 +4830,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -4765,16 +4847,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -4782,16 +4864,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -4799,16 +4881,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -4816,13 +4898,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>16</v>
@@ -4831,16 +4913,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -4848,16 +4930,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -4865,13 +4947,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>16</v>
@@ -4880,16 +4962,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -4897,13 +4979,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>16</v>
@@ -4912,13 +4994,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>16</v>
@@ -4929,13 +5011,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>16</v>
@@ -4946,13 +5028,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>16</v>
@@ -4963,13 +5045,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>16</v>
@@ -4980,13 +5062,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>16</v>
@@ -4997,7 +5079,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -5006,7 +5088,7 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -5014,7 +5096,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -5023,7 +5105,7 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -5031,7 +5113,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -5040,7 +5122,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -5048,7 +5130,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -5057,7 +5139,7 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -5065,7 +5147,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -5074,7 +5156,7 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -5082,7 +5164,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -5091,7 +5173,7 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -5099,7 +5181,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -5108,7 +5190,7 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -5116,7 +5198,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -5125,7 +5207,7 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -5133,7 +5215,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -5142,7 +5224,7 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5150,7 +5232,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -5159,7 +5241,7 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5167,7 +5249,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -5176,7 +5258,7 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5184,7 +5266,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -5193,7 +5275,7 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5201,7 +5283,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -5210,7 +5292,7 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -5218,7 +5300,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -5227,7 +5309,7 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -5235,7 +5317,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -5244,7 +5326,7 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -5252,7 +5334,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -5261,7 +5343,7 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -5269,81 +5351,81 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s">
         <v>16</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D37" t="s">
         <v>16</v>
@@ -5354,13 +5436,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
@@ -5371,36 +5453,36 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D39" t="s">
         <v>16</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B40" t="s">
         <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D40" t="s">
         <v>16</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/locators.xlsx
+++ b/locators.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29421"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EB2B0CF-ABE3-4274-96D5-28E2DD6166F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1764AC93-CE69-403C-B7AF-94C807AFA3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2847,7 +2847,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2908,7 +2908,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>

--- a/locators.xlsx
+++ b/locators.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29421"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1764AC93-CE69-403C-B7AF-94C807AFA3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1332F8A3-72F8-43FA-8339-4C6698A0B948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2853,6 +2853,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
   </cols>

--- a/locators.xlsx
+++ b/locators.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29421"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1332F8A3-72F8-43FA-8339-4C6698A0B948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DD80B15-936A-433E-AB17-F2F63362E07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="264">
   <si>
     <t>page</t>
   </si>
@@ -625,6 +625,9 @@
   </si>
   <si>
     <t>homePage</t>
+  </si>
+  <si>
+    <t>LoginPage</t>
   </si>
   <si>
     <t>TransactionHistoryPage</t>
@@ -1266,7 +1269,7 @@
   <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2159,10 +2162,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
@@ -2179,10 +2182,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
@@ -2191,7 +2194,7 @@
         <v>128</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -2199,7 +2202,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>134</v>
@@ -2219,16 +2222,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>16</v>
@@ -2239,10 +2242,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
@@ -2251,7 +2254,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -2259,16 +2262,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>16</v>
@@ -2279,16 +2282,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>16</v>
@@ -2299,16 +2302,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>16</v>
@@ -2319,16 +2322,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>16</v>
@@ -2339,16 +2342,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>16</v>
@@ -2359,16 +2362,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>16</v>
@@ -2379,16 +2382,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>16</v>
@@ -2399,16 +2402,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>16</v>
@@ -2419,16 +2422,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>16</v>
@@ -2439,16 +2442,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>16</v>
@@ -2459,16 +2462,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>16</v>
@@ -2479,16 +2482,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>16</v>
@@ -2499,19 +2502,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -2519,10 +2522,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>8</v>
@@ -2531,7 +2534,7 @@
         <v>86</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -2539,10 +2542,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>8</v>
@@ -2551,7 +2554,7 @@
         <v>9</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
@@ -2559,10 +2562,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>8</v>
@@ -2571,7 +2574,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
@@ -2579,19 +2582,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -2599,16 +2602,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>16</v>
@@ -2619,16 +2622,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>16</v>
@@ -2639,16 +2642,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>16</v>
@@ -2659,10 +2662,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>8</v>
@@ -2671,7 +2674,7 @@
         <v>86</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
@@ -2679,16 +2682,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>16</v>
@@ -2699,10 +2702,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>32</v>
@@ -2719,16 +2722,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>16</v>
@@ -2739,16 +2742,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>16</v>
@@ -2759,16 +2762,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>16</v>
@@ -2779,16 +2782,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>16</v>
@@ -2799,10 +2802,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>8</v>
@@ -2811,7 +2814,7 @@
         <v>86</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>
@@ -2819,16 +2822,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>16</v>
@@ -2846,8 +2849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04375B0-061C-468F-B4E7-4D7CD5744437}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4800,689 +4803,812 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887A482B-52CE-4D79-A0AB-BC2FF1F35C7B}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4" t="s">
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
+      <c r="E11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4" t="s">
+      <c r="E12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4" t="s">
+      <c r="E13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4" t="s">
+      <c r="E14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4" t="s">
+      <c r="E15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
         <v>49</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
         <v>153</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" t="s">
         <v>52</v>
       </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
         <v>53</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
         <v>55</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21" t="s">
         <v>56</v>
       </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
         <v>57</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22" t="s">
         <v>58</v>
       </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
         <v>59</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B23" t="s">
         <v>60</v>
       </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
         <v>154</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B24" t="s">
         <v>62</v>
       </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
         <v>155</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" t="s">
         <v>64</v>
       </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
         <v>156</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" t="s">
         <v>66</v>
       </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
         <v>157</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27" t="s">
         <v>68</v>
       </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
         <v>158</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28" t="s">
         <v>70</v>
       </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
         <v>159</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B29" t="s">
         <v>72</v>
       </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
         <v>160</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
+        <v>195</v>
+      </c>
+      <c r="B30" t="s">
         <v>74</v>
       </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
         <v>161</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" t="s">
         <v>76</v>
       </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
         <v>162</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
+        <v>195</v>
+      </c>
+      <c r="B32" t="s">
         <v>78</v>
       </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
         <v>163</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
+        <v>195</v>
+      </c>
+      <c r="B33" t="s">
         <v>80</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>32</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>81</v>
       </c>
-      <c r="D33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" t="s">
         <v>85</v>
       </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
       <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
         <v>86</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="F34" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
+        <v>195</v>
+      </c>
+      <c r="B35" t="s">
         <v>88</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>32</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>89</v>
       </c>
-      <c r="D35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36" t="s">
         <v>90</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>32</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>91</v>
       </c>
-      <c r="D36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
+        <v>195</v>
+      </c>
+      <c r="B37" t="s">
         <v>92</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>14</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>93</v>
       </c>
-      <c r="D37" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" t="s">
         <v>94</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>14</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>95</v>
       </c>
-      <c r="D38" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39" t="s">
         <v>96</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>32</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>97</v>
       </c>
-      <c r="D39" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" t="s">
         <v>98</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>32</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>99</v>
       </c>
-      <c r="D40" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>82</v>
       </c>
     </row>

--- a/locators.xlsx
+++ b/locators.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29421"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DD80B15-936A-433E-AB17-F2F63362E07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FDB32B5-04AF-4B29-8F8E-3CBA2E367700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="265">
   <si>
     <t>page</t>
   </si>
@@ -532,6 +532,9 @@
   </si>
   <si>
     <t>{"hasText":"Promotions"}</t>
+  </si>
+  <si>
+    <t>BetInfluencerModalPage</t>
   </si>
   <si>
     <t>summaryButton</t>
@@ -838,7 +841,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -894,6 +897,32 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -916,7 +945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -931,6 +960,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2162,10 +2199,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
@@ -2182,10 +2219,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
@@ -2194,7 +2231,7 @@
         <v>128</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -2202,7 +2239,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>134</v>
@@ -2222,16 +2259,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>16</v>
@@ -2242,10 +2279,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
@@ -2254,7 +2291,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -2262,16 +2299,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>16</v>
@@ -2282,16 +2319,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>16</v>
@@ -2302,16 +2339,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>16</v>
@@ -2322,16 +2359,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>16</v>
@@ -2342,16 +2379,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>16</v>
@@ -2362,16 +2399,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>16</v>
@@ -2382,16 +2419,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>16</v>
@@ -2402,16 +2439,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>16</v>
@@ -2422,16 +2459,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>16</v>
@@ -2442,16 +2479,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>16</v>
@@ -2462,16 +2499,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>16</v>
@@ -2482,16 +2519,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>16</v>
@@ -2502,19 +2539,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -2522,10 +2559,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>8</v>
@@ -2534,7 +2571,7 @@
         <v>86</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -2542,10 +2579,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>8</v>
@@ -2554,7 +2591,7 @@
         <v>9</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
@@ -2562,10 +2599,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>8</v>
@@ -2574,7 +2611,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
@@ -2582,19 +2619,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -2602,16 +2639,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>16</v>
@@ -2622,16 +2659,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>16</v>
@@ -2642,16 +2679,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>16</v>
@@ -2662,10 +2699,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>8</v>
@@ -2674,7 +2711,7 @@
         <v>86</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
@@ -2682,16 +2719,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>16</v>
@@ -2702,10 +2739,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>32</v>
@@ -2722,16 +2759,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>16</v>
@@ -2742,16 +2779,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>16</v>
@@ -2762,16 +2799,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>16</v>
@@ -2782,16 +2819,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>16</v>
@@ -2802,10 +2839,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>8</v>
@@ -2814,7 +2851,7 @@
         <v>86</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>
@@ -2822,16 +2859,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>16</v>
@@ -4352,244 +4389,289 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262B1911-0B8D-4876-BA6B-FF0F7811E95A}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="E2" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="F2" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="E3" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="F3" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
+      <c r="D4" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="E4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
+      <c r="D5" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="E5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4" t="s">
+      <c r="D6" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="E6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4" t="s">
+      <c r="D7" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="E7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
+      <c r="D8" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="E8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
+      <c r="D9" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="E9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
+      <c r="D10" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="E10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
+      <c r="E11" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4" t="s">
+      <c r="D12" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="D13" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="B14" t="s">
+      <c r="E13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="12">
         <v>0</v>
       </c>
     </row>
@@ -4661,7 +4743,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
@@ -4670,7 +4752,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -4687,7 +4769,7 @@
         <v>86</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -4773,7 +4855,7 @@
         <v>86</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -4781,7 +4863,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -4805,8 +4887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887A482B-52CE-4D79-A0AB-BC2FF1F35C7B}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4840,7 +4922,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>127</v>
@@ -4860,7 +4942,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>130</v>
@@ -4880,7 +4962,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>117</v>
@@ -4900,7 +4982,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>132</v>
@@ -4920,7 +5002,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>134</v>
@@ -4938,7 +5020,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>136</v>
@@ -4958,7 +5040,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>137</v>
@@ -4978,7 +5060,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>138</v>
@@ -4996,7 +5078,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>140</v>
@@ -5016,7 +5098,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>142</v>
@@ -5034,7 +5116,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>48</v>
@@ -5054,7 +5136,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>145</v>
@@ -5074,7 +5156,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>147</v>
@@ -5094,7 +5176,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>149</v>
@@ -5114,7 +5196,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>151</v>
@@ -5134,7 +5216,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s">
         <v>48</v>
@@ -5154,7 +5236,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
@@ -5174,7 +5256,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -5194,7 +5276,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s">
         <v>54</v>
@@ -5214,7 +5296,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
@@ -5234,7 +5316,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
@@ -5254,7 +5336,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B23" t="s">
         <v>60</v>
@@ -5274,7 +5356,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s">
         <v>62</v>
@@ -5294,7 +5376,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B25" t="s">
         <v>64</v>
@@ -5314,7 +5396,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s">
         <v>66</v>
@@ -5334,7 +5416,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B27" t="s">
         <v>68</v>
@@ -5354,7 +5436,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B28" t="s">
         <v>70</v>
@@ -5374,7 +5456,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B29" t="s">
         <v>72</v>
@@ -5394,7 +5476,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B30" t="s">
         <v>74</v>
@@ -5414,7 +5496,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B31" t="s">
         <v>76</v>
@@ -5434,7 +5516,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B32" t="s">
         <v>78</v>
@@ -5454,7 +5536,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B33" t="s">
         <v>80</v>
@@ -5474,7 +5556,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B34" t="s">
         <v>85</v>
@@ -5494,7 +5576,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B35" t="s">
         <v>88</v>
@@ -5514,7 +5596,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B36" t="s">
         <v>90</v>
@@ -5534,7 +5616,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B37" t="s">
         <v>92</v>
@@ -5554,7 +5636,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B38" t="s">
         <v>94</v>
@@ -5574,7 +5656,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B39" t="s">
         <v>96</v>
@@ -5594,7 +5676,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B40" t="s">
         <v>98</v>
